--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-858146.1356286668</v>
+        <v>-860033.7171450693</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>145.129494383472</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>97.24693933536807</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>46.6056447625526</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.371506098981751</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>204.8926047698913</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>121.3894915972685</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.45797858609778</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>142.9046269258102</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>167.9390269621179</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.847049572025017</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>162.0285481174124</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.5427670360976</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>263.0596061408514</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>94.16481274941229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>42.73966146813969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.63630303086865</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>95.51221949089678</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.14296480107402</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>194.5686234655082</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.0862448584826</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>18.6611138451888</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348207</v>
@@ -2968,7 +2968,7 @@
         <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523588</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463113</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692892</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,10 +3563,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>681.1991266614659</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4364,16 +4364,16 @@
         <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1795.460519632919</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.460519632919</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>270.0191909330953</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>270.0191909330953</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2258.980686822591</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>1554.45204121794</v>
       </c>
       <c r="Y5" t="n">
-        <v>1971.274048960885</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4665,22 +4665,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782191</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782191</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="D7" t="n">
-        <v>334.3070024658833</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.336222562577</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2097.574437200668</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1766.511549857098</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1766.511549857098</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5772630464454</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>196.6941021971134</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.8250614170373</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C13" t="n">
-        <v>557.8888784891304</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>407.7722390767947</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>407.7722390767947</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>260.8822915788843</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.802364460834</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.802364460834</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1052.673725674392</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>797.9892374685055</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>797.9892374685055</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170373</v>
+        <v>797.9892374685055</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170373</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,19 +5291,19 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>809.4940713833128</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>554.8095831774259</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W16" t="n">
-        <v>265.3924131404652</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>192.3330639344397</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>634.0455001582217</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>328.5881531307907</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C19" t="n">
-        <v>328.5881531307907</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045606</v>
+        <v>665.6859735286133</v>
       </c>
       <c r="X19" t="n">
-        <v>731.0291971045606</v>
+        <v>437.696422630596</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.2366179610304</v>
+        <v>437.696422630596</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5847,7 +5847,7 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.082206476519</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706321</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>695.9798268587602</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>527.0436439308534</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1402.439281173159</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1402.439281173159</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1178.653865962664</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>1178.653865962664</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550793</v>
+        <v>923.9693777567776</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>923.9693777567776</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201012</v>
+        <v>695.9798268587602</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>695.9798268587602</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>672.7698012891904</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>503.8336183612835</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>503.8336183612835</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>503.8336183612835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>503.8336183612835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>335.6582966811042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>185.2402882290475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1302.38230746143</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>1302.38230746143</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.21084526296</v>
+        <v>1012.965137424469</v>
       </c>
       <c r="X28" t="n">
-        <v>1075.21084526296</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y28" t="n">
-        <v>854.4182661194301</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430023</v>
+        <v>565.4200295030853</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430023</v>
+        <v>565.4200295030853</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430023</v>
+        <v>471.0642553721202</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430023</v>
+        <v>378.9120270710977</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264626</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276538</v>
@@ -6616,7 +6616,7 @@
         <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
@@ -6625,10 +6625,10 @@
         <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6643,7 +6643,7 @@
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096192</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981892</v>
+        <v>902.6804289818914</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652452</v>
+        <v>730.4517433652447</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030857</v>
+        <v>565.4200295030853</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,16 +6932,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,31 +6950,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
@@ -7561,19 +7561,19 @@
         <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,25 +7786,25 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254959</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.465020345965144</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>42.37804294750569</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>23.17774625772591</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>124.4198406026825</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>137.0923187137976</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>64.97916998734371</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,10 +23941,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338537</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>14.45213291289599</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518776</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>23.27628066319797</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>91.66872893306916</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.54247869489775</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.55667754918552</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-4.121147867408581e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194637</v>
@@ -26323,34 +26323,34 @@
         <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
+        <v>175963.0768819691</v>
+      </c>
+      <c r="G2" t="n">
         <v>175963.076881969</v>
-      </c>
-      <c r="G2" t="n">
-        <v>175963.0768819691</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="I2" t="n">
+        <v>175963.0768819691</v>
+      </c>
+      <c r="J2" t="n">
         <v>175963.076881969</v>
       </c>
-      <c r="J2" t="n">
-        <v>175963.0768819691</v>
-      </c>
       <c r="K2" t="n">
-        <v>183069.9618053716</v>
+        <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="N2" t="n">
         <v>184734.398219464</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.398219464</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.2921356356</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275951</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-644867.5173097128</v>
       </c>
       <c r="C6" t="n">
+        <v>-54899.63809516848</v>
+      </c>
+      <c r="D6" t="n">
         <v>-54899.6380951684</v>
       </c>
-      <c r="D6" t="n">
-        <v>-54899.63809516835</v>
-      </c>
       <c r="E6" t="n">
-        <v>-456229.9551650828</v>
+        <v>-456327.414291055</v>
       </c>
       <c r="F6" t="n">
-        <v>68930.08131181328</v>
+        <v>68832.62218584119</v>
       </c>
       <c r="G6" t="n">
-        <v>68930.08131181331</v>
+        <v>68832.62218584109</v>
       </c>
       <c r="H6" t="n">
-        <v>68930.08131181306</v>
+        <v>68832.62218584107</v>
       </c>
       <c r="I6" t="n">
-        <v>68930.08131181342</v>
+        <v>68832.6221858412</v>
       </c>
       <c r="J6" t="n">
-        <v>-107493.1378807795</v>
+        <v>-107590.5970067518</v>
       </c>
       <c r="K6" t="n">
-        <v>9068.855836667659</v>
+        <v>9050.362098733098</v>
       </c>
       <c r="L6" t="n">
-        <v>39211.92873581211</v>
+        <v>39211.92873581215</v>
       </c>
       <c r="M6" t="n">
-        <v>-85246.17969715815</v>
+        <v>-85246.1796971583</v>
       </c>
       <c r="N6" t="n">
-        <v>49554.83553667898</v>
+        <v>49554.83553667901</v>
       </c>
       <c r="O6" t="n">
-        <v>49554.83553667914</v>
+        <v>49554.83553667901</v>
       </c>
       <c r="P6" t="n">
-        <v>5392.230233833427</v>
+        <v>5392.230233833616</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,43 +26738,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108373</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>268.654675637323</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>251.9940293820449</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>99.82831788401657</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>46.98975772502837</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.3623355644988</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>46.33156273839802</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>25.04447104930065</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>107.5076432062404</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>211.7784146948728</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>48.50929339553991</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>142.5869130745442</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.84727966881374</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30283,10 +30283,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
